--- a/metadata/excel/projects/micans/deep_sulfur/metadata.xlsx
+++ b/metadata/excel/projects/micans/deep_sulfur/metadata.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -1729,10 +1729,10 @@
   </sheetPr>
   <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2115,7 +2115,7 @@
         <v>39</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>83</v>
@@ -2247,11 +2247,9 @@
       </c>
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
-      <c r="R4" t="s">
-        <v>39</v>
-      </c>
+      <c r="R4" s="16"/>
       <c r="S4" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T4" s="16" t="s">
         <v>83</v>
